--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -46,85 +46,82 @@
     <t>evil</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>creepy</t>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>worse</t>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>insane</t>
   </si>
   <si>
+    <t>shocking</t>
+  </si>
+  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>hate</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>behind</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>dark</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>dark</t>
+    <t>fake</t>
   </si>
   <si>
     <t>amazing</t>
@@ -136,37 +133,40 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>first</t>
+    <t>many</t>
   </si>
   <si>
     <t>social</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
   <si>
     <t>positive</t>
@@ -527,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -699,10 +699,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -746,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9903846153846154</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9333333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>0.82</v>
+      </c>
+      <c r="L7">
         <v>41</v>
       </c>
-      <c r="K7">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L7">
-        <v>25</v>
-      </c>
       <c r="M7">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,10 +849,10 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.6666666666666666</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,16 +917,16 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.5517241379310345</v>
+        <v>0.55</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.5466666666666666</v>
+        <v>0.52</v>
       </c>
       <c r="L10">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -996,13 +996,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1014,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.4833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,16 +1067,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.4444444444444444</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13">
         <v>0.3157894736842105</v>
@@ -1146,13 +1146,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1164,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.2222222222222222</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="L14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1217,16 +1217,16 @@
         <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.2121212121212121</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1246,13 +1246,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1264,19 +1264,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.03187613843351549</v>
+        <v>0.04280510018214936</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1288,21 +1288,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5625</v>
+        <v>0.6</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1314,10 +1314,34 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17">
+        <v>0.009036144578313253</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1325,10 +1349,10 @@
         <v>0.5</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1340,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1351,10 +1375,10 @@
         <v>0.5</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1366,21 +1390,21 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1392,21 +1416,21 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.463768115942029</v>
+        <v>0.45</v>
       </c>
       <c r="C21">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1418,21 +1442,21 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4615384615384616</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1444,21 +1468,21 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1470,21 +1494,21 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.391304347826087</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1496,21 +1520,21 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3571428571428572</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1522,21 +1546,21 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3461538461538461</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1548,21 +1572,21 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3142857142857143</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1574,21 +1598,21 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2765957446808511</v>
+        <v>0.25</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1600,21 +1624,21 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.25</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1626,21 +1650,21 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2307692307692308</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1652,33 +1676,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
